--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H2">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I2">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J2">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N2">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q2">
-        <v>0.448144590288</v>
+        <v>0.4704307782844444</v>
       </c>
       <c r="R2">
-        <v>4.033301312592</v>
+        <v>4.23387700456</v>
       </c>
       <c r="S2">
-        <v>0.001751079544867446</v>
+        <v>0.000869563117991144</v>
       </c>
       <c r="T2">
-        <v>0.001751079544867446</v>
+        <v>0.0008695631179911439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H3">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I3">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J3">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q3">
-        <v>0.152607555904</v>
+        <v>0.1942073377093333</v>
       </c>
       <c r="R3">
-        <v>1.373468003136</v>
+        <v>1.747866039384</v>
       </c>
       <c r="S3">
-        <v>0.0005962985503495103</v>
+        <v>0.0003589806320307914</v>
       </c>
       <c r="T3">
-        <v>0.0005962985503495103</v>
+        <v>0.0003589806320307914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H4">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I4">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J4">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N4">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q4">
-        <v>26.00858258046933</v>
+        <v>129.0820977889951</v>
       </c>
       <c r="R4">
-        <v>234.077243224224</v>
+        <v>1161.738880100956</v>
       </c>
       <c r="S4">
-        <v>0.1016258991732721</v>
+        <v>0.238600526605782</v>
       </c>
       <c r="T4">
-        <v>0.1016258991732721</v>
+        <v>0.238600526605782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H5">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I5">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J5">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N5">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q5">
-        <v>0.4775202537973334</v>
+        <v>0.8134250541886667</v>
       </c>
       <c r="R5">
-        <v>4.297682284176</v>
+        <v>7.320825487698</v>
       </c>
       <c r="S5">
-        <v>0.00186586197134959</v>
+        <v>0.001503567493929428</v>
       </c>
       <c r="T5">
-        <v>0.00186586197134959</v>
+        <v>0.001503567493929427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H6">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I6">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J6">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N6">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q6">
-        <v>59.55886553258668</v>
+        <v>90.73510180255755</v>
       </c>
       <c r="R6">
-        <v>536.0297897932801</v>
+        <v>816.6159162230181</v>
       </c>
       <c r="S6">
-        <v>0.2327202278233457</v>
+        <v>0.1677184012542846</v>
       </c>
       <c r="T6">
-        <v>0.2327202278233457</v>
+        <v>0.1677184012542845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.023056</v>
       </c>
       <c r="I7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N7">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q7">
-        <v>0.272321545104</v>
+        <v>0.22463114688</v>
       </c>
       <c r="R7">
-        <v>2.450893905936</v>
+        <v>2.02168032192</v>
       </c>
       <c r="S7">
-        <v>0.0010640688241977</v>
+        <v>0.0004152172210994095</v>
       </c>
       <c r="T7">
-        <v>0.0010640688241977</v>
+        <v>0.0004152172210994094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.023056</v>
       </c>
       <c r="I8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q8">
         <v>0.09273418963199999</v>
       </c>
       <c r="R8">
-        <v>0.8346077066879999</v>
+        <v>0.834607706688</v>
       </c>
       <c r="S8">
-        <v>0.0003623494427771567</v>
+        <v>0.0001714135953749741</v>
       </c>
       <c r="T8">
-        <v>0.0003623494427771567</v>
+        <v>0.0001714135953749741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2.023056</v>
       </c>
       <c r="I9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N9">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q9">
-        <v>15.804491558688</v>
+        <v>61.636825238688</v>
       </c>
       <c r="R9">
-        <v>142.240424028192</v>
+        <v>554.731427148192</v>
       </c>
       <c r="S9">
-        <v>0.06175444819642583</v>
+        <v>0.113931979818764</v>
       </c>
       <c r="T9">
-        <v>0.06175444819642583</v>
+        <v>0.113931979818764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>2.023056</v>
       </c>
       <c r="I10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N10">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q10">
-        <v>0.290172092112</v>
+        <v>0.388411241904</v>
       </c>
       <c r="R10">
-        <v>2.611548829008</v>
+        <v>3.495701177136</v>
       </c>
       <c r="S10">
-        <v>0.001133818026593105</v>
+        <v>0.0007179549174153661</v>
       </c>
       <c r="T10">
-        <v>0.001133818026593105</v>
+        <v>0.0007179549174153659</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.023056</v>
       </c>
       <c r="I11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N11">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q11">
-        <v>36.19180647936</v>
+        <v>43.326097953264</v>
       </c>
       <c r="R11">
-        <v>325.7262583142401</v>
+        <v>389.934881579376</v>
       </c>
       <c r="S11">
-        <v>0.141415813983341</v>
+        <v>0.08008569712215989</v>
       </c>
       <c r="T11">
-        <v>0.141415813983341</v>
+        <v>0.08008569712215986</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H12">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I12">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J12">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N12">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q12">
-        <v>0.141848541238</v>
+        <v>0.3133474454133333</v>
       </c>
       <c r="R12">
-        <v>1.276636871142</v>
+        <v>2.82012700872</v>
       </c>
       <c r="S12">
-        <v>0.0005542587915019161</v>
+        <v>0.0005792039854233911</v>
       </c>
       <c r="T12">
-        <v>0.0005542587915019161</v>
+        <v>0.000579203985423391</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H13">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I13">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J13">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q13">
-        <v>0.04830396183733333</v>
+        <v>0.129358825912</v>
       </c>
       <c r="R13">
-        <v>0.434735656536</v>
+        <v>1.164229433208</v>
       </c>
       <c r="S13">
-        <v>0.0001887428328768941</v>
+        <v>0.0002391120419669867</v>
       </c>
       <c r="T13">
-        <v>0.000188742832876894</v>
+        <v>0.0002391120419669867</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H14">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I14">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J14">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N14">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q14">
-        <v>8.232341924147111</v>
+        <v>85.97980289104133</v>
       </c>
       <c r="R14">
-        <v>74.09107731732399</v>
+        <v>773.8182260193719</v>
       </c>
       <c r="S14">
-        <v>0.0321670413124135</v>
+        <v>0.158928516027052</v>
       </c>
       <c r="T14">
-        <v>0.0321670413124135</v>
+        <v>0.158928516027052</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H15">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I15">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J15">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N15">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q15">
-        <v>0.1511466452584445</v>
+        <v>0.541811196314</v>
       </c>
       <c r="R15">
-        <v>1.360319807326</v>
+        <v>4.876300766826</v>
       </c>
       <c r="S15">
-        <v>0.0005905901901377595</v>
+        <v>0.001001505545507571</v>
       </c>
       <c r="T15">
-        <v>0.0005905901901377594</v>
+        <v>0.001001505545507571</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H16">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I16">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J16">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N16">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q16">
-        <v>18.85181340280889</v>
+        <v>60.43739838374066</v>
       </c>
       <c r="R16">
-        <v>169.66632062528</v>
+        <v>543.936585453666</v>
       </c>
       <c r="S16">
-        <v>0.07366154930510728</v>
+        <v>0.1117149111150669</v>
       </c>
       <c r="T16">
-        <v>0.07366154930510727</v>
+        <v>0.1117149111150669</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H17">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N17">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q17">
-        <v>0.461366290095</v>
+        <v>0.01947685783555556</v>
       </c>
       <c r="R17">
-        <v>4.152296610855</v>
+        <v>0.17529172052</v>
       </c>
       <c r="S17">
-        <v>0.001802741996188206</v>
+        <v>3.600180517507599E-05</v>
       </c>
       <c r="T17">
-        <v>0.001802741996188205</v>
+        <v>3.600180517507598E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H18">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q18">
-        <v>0.15710996726</v>
+        <v>0.008040606358666668</v>
       </c>
       <c r="R18">
-        <v>1.41398970534</v>
+        <v>0.07236545722800002</v>
       </c>
       <c r="S18">
-        <v>0.0006138912661803627</v>
+        <v>1.486257927527444E-05</v>
       </c>
       <c r="T18">
-        <v>0.0006138912661803626</v>
+        <v>1.486257927527443E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H19">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N19">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q19">
-        <v>26.77591901325667</v>
+        <v>5.34427971936689</v>
       </c>
       <c r="R19">
-        <v>240.98327111931</v>
+        <v>48.098517474302</v>
       </c>
       <c r="S19">
-        <v>0.10462418847678</v>
+        <v>0.009878580974520339</v>
       </c>
       <c r="T19">
-        <v>0.10462418847678</v>
+        <v>0.009878580974520337</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H20">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N20">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q20">
-        <v>0.4916086297016667</v>
+        <v>0.03367756718233334</v>
       </c>
       <c r="R20">
-        <v>4.424477667315</v>
+        <v>0.3030981046410001</v>
       </c>
       <c r="S20">
-        <v>0.001920910871640068</v>
+        <v>6.225096587476908E-05</v>
       </c>
       <c r="T20">
-        <v>0.001920910871640068</v>
+        <v>6.225096587476905E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05847033333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.175411</v>
+      </c>
+      <c r="I21">
+        <v>0.01693560307675702</v>
+      </c>
+      <c r="J21">
+        <v>0.01693560307675701</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>64.24849033333334</v>
+      </c>
+      <c r="N21">
+        <v>192.745471</v>
+      </c>
+      <c r="O21">
+        <v>0.4100182745450386</v>
+      </c>
+      <c r="P21">
+        <v>0.4100182745450385</v>
+      </c>
+      <c r="Q21">
+        <v>3.756630645953445</v>
+      </c>
+      <c r="R21">
+        <v>33.809675813581</v>
+      </c>
+      <c r="S21">
+        <v>0.006943906751911559</v>
+      </c>
+      <c r="T21">
+        <v>0.006943906751911557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.100258</v>
+      </c>
+      <c r="I22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3331066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.99932</v>
+      </c>
+      <c r="O22">
+        <v>0.002125805913843485</v>
+      </c>
+      <c r="P22">
+        <v>0.002125805913843485</v>
+      </c>
+      <c r="Q22">
+        <v>0.1221677582844444</v>
+      </c>
+      <c r="R22">
+        <v>1.09950982456</v>
+      </c>
+      <c r="S22">
+        <v>0.0002258197841544644</v>
+      </c>
+      <c r="T22">
+        <v>0.0002258197841544643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.100258</v>
+      </c>
+      <c r="I23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.137516</v>
+      </c>
+      <c r="N23">
+        <v>0.412548</v>
+      </c>
+      <c r="O23">
+        <v>0.0008775937418887864</v>
+      </c>
+      <c r="P23">
+        <v>0.0008775937418887864</v>
+      </c>
+      <c r="Q23">
+        <v>0.05043435970933333</v>
+      </c>
+      <c r="R23">
+        <v>0.453909237384</v>
+      </c>
+      <c r="S23">
+        <v>9.322489324075968E-05</v>
+      </c>
+      <c r="T23">
+        <v>9.322489324075965E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.100258</v>
+      </c>
+      <c r="I24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>91.40156066666667</v>
+      </c>
+      <c r="N24">
+        <v>274.204682</v>
+      </c>
+      <c r="O24">
+        <v>0.5833025803538128</v>
+      </c>
+      <c r="P24">
+        <v>0.5833025803538128</v>
+      </c>
+      <c r="Q24">
+        <v>33.52176611199511</v>
+      </c>
+      <c r="R24">
+        <v>301.695895007956</v>
+      </c>
+      <c r="S24">
+        <v>0.06196297692769438</v>
+      </c>
+      <c r="T24">
+        <v>0.06196297692769435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.142485</v>
-      </c>
-      <c r="H21">
-        <v>3.427455</v>
-      </c>
-      <c r="I21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="J21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>53.66901333333334</v>
-      </c>
-      <c r="N21">
-        <v>161.00704</v>
-      </c>
-      <c r="O21">
-        <v>0.6873838105324488</v>
-      </c>
-      <c r="P21">
-        <v>0.6873838105324488</v>
-      </c>
-      <c r="Q21">
-        <v>61.31604269813334</v>
-      </c>
-      <c r="R21">
-        <v>551.8443842832</v>
-      </c>
-      <c r="S21">
-        <v>0.2395862194206548</v>
-      </c>
-      <c r="T21">
-        <v>0.2395862194206548</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.100258</v>
+      </c>
+      <c r="I25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5759770000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.727931</v>
+      </c>
+      <c r="O25">
+        <v>0.00367574544541637</v>
+      </c>
+      <c r="P25">
+        <v>0.00367574544541637</v>
+      </c>
+      <c r="Q25">
+        <v>0.2112411006886667</v>
+      </c>
+      <c r="R25">
+        <v>1.901169906198</v>
+      </c>
+      <c r="S25">
+        <v>0.0003904665226892365</v>
+      </c>
+      <c r="T25">
+        <v>0.0003904665226892364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.100258</v>
+      </c>
+      <c r="I26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>64.24849033333334</v>
+      </c>
+      <c r="N26">
+        <v>192.745471</v>
+      </c>
+      <c r="O26">
+        <v>0.4100182745450386</v>
+      </c>
+      <c r="P26">
+        <v>0.4100182745450385</v>
+      </c>
+      <c r="Q26">
+        <v>23.56330515905756</v>
+      </c>
+      <c r="R26">
+        <v>212.069746431518</v>
+      </c>
+      <c r="S26">
+        <v>0.04355535830161567</v>
+      </c>
+      <c r="T26">
+        <v>0.04355535830161566</v>
       </c>
     </row>
   </sheetData>
